--- a/US004 - Create Claim.xlsx
+++ b/US004 - Create Claim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen442\eclipse-workspace\DemoClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA5A76-2D1C-49FE-9E5D-0C066DDBFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE979A9A-BD3C-4A0F-896D-1ABBA79190C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="739" firstSheet="1" activeTab="1" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="739" firstSheet="1" activeTab="15" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Amendment History" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>Version</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>US001</t>
-  </si>
-  <si>
-    <t>Create Client</t>
   </si>
   <si>
     <t>Test Case
@@ -114,9 +111,6 @@
     <t>Check results on entering valid all</t>
   </si>
   <si>
-    <t>Create successful client information</t>
-  </si>
-  <si>
     <t>As Expected</t>
   </si>
   <si>
@@ -126,30 +120,15 @@
     <t>TC-02</t>
   </si>
   <si>
-    <t>Check response when a First Name is Empty and Save Button is pressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create unsuccessful client information and Error message is displayed. </t>
-  </si>
-  <si>
     <t>TC-03</t>
   </si>
   <si>
-    <t>Check response when a Last Name is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-04</t>
   </si>
   <si>
-    <t>Check response when a Identity Number is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-05</t>
   </si>
   <si>
-    <t>Check response when a Date of Birth is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-06</t>
   </si>
   <si>
@@ -159,91 +138,40 @@
     <t>TC-07</t>
   </si>
   <si>
-    <t>Check response when a First Name longer than 60 and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-08</t>
   </si>
   <si>
-    <t>Check response when a First Name have special characters and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-09</t>
   </si>
   <si>
-    <t>Check response when a First Name have number characters and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-10</t>
   </si>
   <si>
-    <t>Check response when a Last Name longer than 60 and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyennnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnn</t>
-  </si>
-  <si>
     <t>TC-11</t>
   </si>
   <si>
-    <t>Check response when a Last Name have special characters and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyen!</t>
-  </si>
-  <si>
     <t>TC-12</t>
   </si>
   <si>
-    <t>Check response when a Last Name have number characters and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyen123</t>
-  </si>
-  <si>
     <t>TC-13</t>
   </si>
   <si>
-    <t>Check response when a Address longer than 120 and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-14</t>
   </si>
   <si>
-    <t>Check response when a Address have special characters and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>TC-15</t>
-  </si>
-  <si>
-    <t>Check response when a Identity Numberless than 0 and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Identity Number = -1</t>
-  </si>
-  <si>
-    <t>TC-16</t>
-  </si>
-  <si>
-    <t>Check response when a Date of Birth is future date and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>TC-17</t>
-  </si>
-  <si>
-    <t>Check response when create client Identity Numberless exists and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>TC-18</t>
-  </si>
-  <si>
     <t>Hai Nguyen</t>
   </si>
   <si>
     <t>Hai Nguyen / 18-Aug/22</t>
   </si>
   <si>
-    <t>1. First Name = Haiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
+    <t>Create claim</t>
+  </si>
+  <si>
+    <t>Create successful claim information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create unsuccessful claim information and Error message is displayed. </t>
   </si>
   <si>
     <r>
@@ -261,7 +189,7 @@
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">http://localhost:8080/
+      <t xml:space="preserve">http://localhost:8080/claim
 </t>
     </r>
     <r>
@@ -270,154 +198,12 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2. Enter First Name
-3. Enter Last Name
-4. Enter Identity Number
-5. Select Date of Birth
-6. Select Gender
-7. Select Marital Status
-8. Select Country
-9. Enter Address
-10. Click Save
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = Empty 
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai!</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai123</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter First Name
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Last Name
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Identity Number
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Date of Birth
-3. Click Save</t>
-  </si>
-  <si>
-    <t>check response when not input</t>
-  </si>
-  <si>
-    <t>1. First Name = empty
-2. Last Name = empty
-3. Identity Number = empty
-4. Date of Birth = empty
-5. Gender = empty
-6. Marital Status = empty
-7. Country = empty
-8. Address = empty</t>
-  </si>
-  <si>
-    <t>1. First Name = Empty 
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Empty 
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = Empty 
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = Empty </t>
-  </si>
-  <si>
-    <t>1. Identity Number = 123456</t>
-  </si>
-  <si>
-    <t>1. Address  =Quan9!</t>
-  </si>
-  <si>
-    <t>1. Address  =1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa 1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa 1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>1.Date of Birth = 08/27/2022</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to site </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost:8080/motor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2. Enter Inception Date
-3. Enter Expiry Date
-4. Enter Policy Owner
-5. Select Engine No
-6. Select Chassis No
-7. Select Vehicle Registration No
-8. Select Billing Currency
-9. Enter Sum Insured
-10. Enter Rate
-11. Click Save
+      <t xml:space="preserve">2. Click button Add Claim
+3. Enter Date Occured
+4. Enter Policy No
+5. Select Reserve Currency
+6. Enter Reserve Amount 
+7. Click Save
 </t>
     </r>
   </si>
@@ -438,17 +224,291 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">. Enter Inception Date
-2. Enter Expiry Date
-3. Enter Policy Owner
-4. Select Engine No
-5. Select Chassis No
-6. Select Vehicle Registration No
-7. Select Billing Currency
-8. Enter Sum Insured
-9. Enter Rate
+      <t xml:space="preserve">. Date Occurred = 07/09/2022
+2. Policy No = empty
+3. Reserve Currency = VND - Vietnam Dong
+4. Reserve Amount =500000
 </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Date Occurred = empty
+2. Policy No = empty
+3. Reserve Currency = empty
+4. Reserve Amount = empty
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Date Occurred = 10/09/2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to site </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">http://localhost:8080/claim
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2. Click button Add Claim
+3. Enter Date Occured
+4. Click Save
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Check response when a Date Occurred is a date in the future and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Policy Owner have special characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to site </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">http://localhost:8080/claim
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2. Click button Add Claim
+3. Enter Policy No
+4. Click Save
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Policy No= NO0000!</t>
+  </si>
+  <si>
+    <t>1. Policy No= NO0000</t>
+  </si>
+  <si>
+    <t>Check response when a Policy No input less or more 8 characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Policy No not exist and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Policy No= NO000006</t>
+  </si>
+  <si>
+    <t>Check response when a Date Occurred is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a policy No is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Reverse Currency is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Reserve Amount is  Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Policy Owner, Engine No are displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy Owner, Engine No, Chassis No, Vehicle Registration No and Sum Insured are  displayed. </t>
+  </si>
+  <si>
+    <t>1. Policy No= NO000004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Date Occurred = 07/09/2022
+2. Policy No = CUS000004
+3. Reserve Currency = VND - Vietnam Dong
+4. Reserve Amount =500000
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Date Occurred =empty
+2. Policy No = CUS000004
+3. Reserve Currency = VND - Vietnam Dong
+4. Reserve Amount =500000
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Date Occurred = 07/09/2022
+2. Policy No = CUS000004
+3. Reserve Currency =empty
+4. Reserve Amount =500000
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Date Occurred = 07/09/2022
+2. Policy No = CUS000004
+3. Reserve Currency = VND - Vietnam Dong
+4. Reserve Amount = empty
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Policy No= NO000005</t>
+  </si>
+  <si>
+    <t>Check response when a Policy No not in force and Refresh Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Policy No exist and Refresh Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Reserve input negative number  and Save Button is pressed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to site </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">http://localhost:8080/claim
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2. Click button Add Claim
+3. Enter Reserve Amount
+4. Click Save
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Reserve Amount  = -1000000</t>
+  </si>
+  <si>
+    <t>Check response when a Reserve input large than Sum Insured  and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Reserve Amount  =1000000001</t>
   </si>
 </sst>
 </file>
@@ -458,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +581,12 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -571,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,9 +693,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,8 +705,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -767,17 +842,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>239945</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>563755</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0D313-1C7E-EF86-F925-083099E962A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F60B91-0269-46EF-A3AF-F2AB415718CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,7 +869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13041545" cy="1752845"/>
+          <a:ext cx="12755755" cy="1581371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,16 +892,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>116103</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21188</xdr:rowOff>
+      <xdr:colOff>154208</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78856</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27566E6-A4A1-E8B8-B53C-13780ADBF4E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8597029-B276-492A-956D-75ED98989316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12917703" cy="1667108"/>
+          <a:ext cx="12955808" cy="5382376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,16 +941,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>325682</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40240</xdr:rowOff>
+      <xdr:colOff>220892</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E09F2F-52C4-1C5F-299B-9E7B7B27FCFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF50EA77-B53B-446F-B0A7-52A3CD2919AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,7 +967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13127282" cy="1686160"/>
+          <a:ext cx="13022492" cy="2486372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -914,17 +989,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>516123</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49767</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81D7166-B0D9-79B7-649F-13DCE5ACC0D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80656DFD-1E69-4EBB-835B-39BE612F1933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +1016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12708123" cy="1695687"/>
+          <a:ext cx="13070124" cy="1609950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,16 +1039,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>49418</xdr:colOff>
+      <xdr:colOff>125629</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>156436</xdr:rowOff>
+      <xdr:rowOff>89752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1555B5-C2FA-3EE8-0D67-996B65DA58F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920F405C-7268-46C0-BBD6-88599D804645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +1065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12851018" cy="1619476"/>
+          <a:ext cx="12927229" cy="1552792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,17 +1327,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>258657</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220807</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>146910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F04722-944F-1D61-4D4B-A4E99C91E4BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2E117B-914C-4453-B512-BD4957524FD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10621857" cy="1609950"/>
+          <a:ext cx="12412807" cy="1609950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,17 +1376,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>87183</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>32594</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AD1706-0940-82EF-A5B9-CCD90D80FCDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECD5697-057F-451F-AD5B-F524F48C4660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10450383" cy="1495634"/>
+          <a:ext cx="12717650" cy="1762371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1350,17 +1425,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>325342</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>430387</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>61173</xdr:rowOff>
+      <xdr:rowOff>175489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC0F916-600E-5900-3696-5CD2A976DD27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70C0AA0-F369-4EF8-9CC8-4684386E058B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10688542" cy="1524213"/>
+          <a:ext cx="12622387" cy="1638529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,14 +1477,14 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>468492</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>156436</xdr:rowOff>
+      <xdr:rowOff>99278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4403C209-D27A-AFAE-18E9-75F3305867F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA089300-0B21-4D22-84CA-42042BE1DD66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12660492" cy="1619476"/>
+          <a:ext cx="12660492" cy="1562318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,17 +1523,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11313</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85992</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>412100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDF6172-4BD3-9C8F-AFBC-F931B69787F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393F9742-81FA-4E8C-A274-83FE646C9E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12812913" cy="1914792"/>
+          <a:ext cx="18090500" cy="9069066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,16 +1573,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>392366</xdr:colOff>
+      <xdr:colOff>373314</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11661</xdr:rowOff>
+      <xdr:rowOff>68819</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02028C14-2C00-6148-48C1-34199889888C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{421D31B8-6BD8-4946-A461-9F96E76E6A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13193966" cy="1657581"/>
+          <a:ext cx="13174914" cy="1714739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,16 +1622,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>601860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135504</xdr:rowOff>
+      <xdr:colOff>458965</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51646</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B16D2CB-2E3A-BC26-2E31-9BD2CCF3915A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8135F16-7A7B-4B7E-8F47-F173A39C2281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12793860" cy="1781424"/>
+          <a:ext cx="12650965" cy="1514686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,16 +1671,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>487544</xdr:colOff>
+      <xdr:colOff>363702</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>99278</xdr:rowOff>
+      <xdr:rowOff>118331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F903D726-3AFF-20BB-8791-C9AFE067C96B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF47217F-4516-4B3F-8563-4776DF1D841D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12679544" cy="1562318"/>
+          <a:ext cx="12555702" cy="1581371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1977,10 +2052,10 @@
         <v>44791</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
@@ -2068,7 +2143,9 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2096,7 +2173,9 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2155,8 +2234,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2176,559 +2255,503 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="B6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="B9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="24" t="s">
+      <c r="B13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
+      <c r="C16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>51</v>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>21</v>
+      <c r="D18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="22"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
+      <c r="B38" s="22"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
+      <c r="B40" s="22"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
+      <c r="B41" s="22"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
+      <c r="B43" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" location="'TC-01'!A1" display="TC-01" xr:uid="{5BE3B563-365E-4B72-B5F8-938C8125D68C}"/>
     <hyperlink ref="A6" location="'TC-02'!A1" display="TC-02" xr:uid="{0E968C32-0214-4F0C-A817-194696A898C7}"/>
-    <hyperlink ref="A22" location="'TC-18'!A1" display="TC-18" xr:uid="{643976F8-6C75-41F6-A50A-5C05B06D52D6}"/>
     <hyperlink ref="A7" location="'TC-03'!A1" display="TC-03" xr:uid="{B78AD488-74D4-49A5-B2BE-D6BF1E9AD77F}"/>
     <hyperlink ref="A8" location="'TC-04'!A1" display="TC-04" xr:uid="{877DB68C-5C32-4665-B94C-A53C733A0EAC}"/>
     <hyperlink ref="A9" location="'TC-05'!A1" display="TC-05" xr:uid="{CC20ACA4-01EF-49BD-8F5F-1EF552AE04EF}"/>
@@ -2741,9 +2764,6 @@
     <hyperlink ref="A16" location="'TC-12'!A1" display="TC-12" xr:uid="{4AEFDB49-AA5D-4119-9792-C2A3792F878B}"/>
     <hyperlink ref="A17" location="'TC-13'!A1" display="TC-13" xr:uid="{58C10A1C-993B-4DA5-8C9E-CF8208E78A8D}"/>
     <hyperlink ref="A18" location="'TC-14'!A1" display="TC-14" xr:uid="{74E918E0-8ADF-42E3-A75D-3B229ED43A16}"/>
-    <hyperlink ref="A19" location="'TC-15'!A1" display="TC-15" xr:uid="{60197EBB-E808-46B9-B87B-00CD91F31B96}"/>
-    <hyperlink ref="A20" location="'TC-16'!A1" display="TC-16" xr:uid="{24A24B55-0AEF-4424-B60A-78FB8B23BD9D}"/>
-    <hyperlink ref="A21" location="'TC-17'!A1" display="TC-17" xr:uid="{0106B6A8-3943-477C-92EB-21A64BED7BDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2821,7 +2841,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2836,7 +2858,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2903,6 +2925,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068073968EC026B4DBE87DD3E85715D31" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f7a1f886a19eb4d4656104787b0b142">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4928f78-8817-462b-a38c-b730d253bc3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725f0d8d56db4f087920445967312631" ns2:_="">
     <xsd:import namespace="c4928f78-8817-462b-a38c-b730d253bc3b"/>
@@ -3034,15 +3065,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3050,6 +3072,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCA5937-B1F9-4A87-B786-D97E6524A9F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3067,14 +3097,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8786B0-2300-4E92-B982-B5A20D07E2F4}">
   <ds:schemaRefs>

--- a/US004 - Create Claim.xlsx
+++ b/US004 - Create Claim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen442\eclipse-workspace\DemoClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE979A9A-BD3C-4A0F-896D-1ABBA79190C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA4EAA-4104-40B7-84B8-D68024C44955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="739" firstSheet="1" activeTab="15" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
   </bookViews>
@@ -29,13 +29,6 @@
     <sheet name="TC-12" sheetId="13" r:id="rId14"/>
     <sheet name="TC-13" sheetId="14" r:id="rId15"/>
     <sheet name="TC-14" sheetId="15" r:id="rId16"/>
-    <sheet name="TC-15" sheetId="16" r:id="rId17"/>
-    <sheet name="TC-16" sheetId="17" r:id="rId18"/>
-    <sheet name="TC-17" sheetId="18" r:id="rId19"/>
-    <sheet name="TC-18" sheetId="19" r:id="rId20"/>
-    <sheet name="TC-19" sheetId="20" r:id="rId21"/>
-    <sheet name="TC-20" sheetId="21" r:id="rId22"/>
-    <sheet name="TC-21" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -160,9 +153,6 @@
   </si>
   <si>
     <t>Hai Nguyen</t>
-  </si>
-  <si>
-    <t>Hai Nguyen / 18-Aug/22</t>
   </si>
   <si>
     <t>Create claim</t>
@@ -509,6 +499,9 @@
   </si>
   <si>
     <t>1. Reserve Amount  =1000000001</t>
+  </si>
+  <si>
+    <t>Hai Nguyen / 09-Sep/22</t>
   </si>
 </sst>
 </file>
@@ -1066,246 +1059,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="12927229" cy="1552792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>478018</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2135</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85340A74-B65D-6ACD-9381-E6DC3E31BAA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12670018" cy="1648055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>398400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30270</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D082C10-A6A5-B3F3-8AE7-9309EE2C031E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13200000" cy="1676190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>470414</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135504</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC34406-40A0-BD66-7ACC-F68E95A014CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240" y="0"/>
-          <a:ext cx="12784334" cy="1781424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171719</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C9B7EF-92D8-4AD3-AEC0-1E7FD8EE25E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="13582919" cy="6800850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>11684</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8BAAC3-EE1D-9F35-E469-1C1E3264CBE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="6842760"/>
-          <a:ext cx="13544550" cy="6503924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,7 +1763,7 @@
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2049,13 +1802,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="6">
-        <v>44791</v>
+        <v>44813</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
@@ -2174,55 +1927,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDFD165-9003-4702-84FD-E8D3CC721FF5}">
-  <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5C1F00-F0AD-41CB-A690-662AA2569639}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A20AE9-CAB7-45F8-B34D-A27F9BE301EF}">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2255,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
@@ -2289,13 +1997,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>18</v>
@@ -2309,16 +2017,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>18</v>
@@ -2332,16 +2040,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>18</v>
@@ -2355,16 +2063,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>18</v>
@@ -2378,16 +2086,16 @@
         <v>23</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>18</v>
@@ -2404,13 +2112,13 @@
         <v>25</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>18</v>
@@ -2424,16 +2132,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>18</v>
@@ -2447,16 +2155,16 @@
         <v>27</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>18</v>
@@ -2470,16 +2178,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>18</v>
@@ -2493,16 +2201,16 @@
         <v>29</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>18</v>
@@ -2516,16 +2224,16 @@
         <v>30</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>18</v>
@@ -2539,16 +2247,16 @@
         <v>31</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>18</v>
@@ -2562,16 +2270,16 @@
         <v>32</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>18</v>
@@ -2585,16 +2293,16 @@
         <v>33</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>18</v>
@@ -2769,59 +2477,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330F6FBB-625A-4702-9122-B4F462B8E834}">
-  <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDEFDF1-2735-4186-B21F-04CFE4E8B619}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C2EF72-E2E9-490A-83D5-570BF42C2D88}">
-  <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C78BA-4698-4F01-9E4D-7990F5C296FF}">
-  <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C8FD1A-4737-4DEA-A8C6-B98EF7A85931}">
   <sheetPr codeName="Sheet3"/>
@@ -2925,15 +2580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068073968EC026B4DBE87DD3E85715D31" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f7a1f886a19eb4d4656104787b0b142">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4928f78-8817-462b-a38c-b730d253bc3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725f0d8d56db4f087920445967312631" ns2:_="">
     <xsd:import namespace="c4928f78-8817-462b-a38c-b730d253bc3b"/>
@@ -3065,6 +2711,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3072,14 +2727,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCA5937-B1F9-4A87-B786-D97E6524A9F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3097,6 +2744,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8786B0-2300-4E92-B982-B5A20D07E2F4}">
   <ds:schemaRefs>
